--- a/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
+++ b/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
@@ -269,10 +269,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
+++ b/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -269,10 +269,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
+++ b/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Survey Completion Identifier Codes</t>
+    <t>Questionnaire codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11</t>
+    <t>2023-08-02</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This code system identifies who has completed a specific survey or questionnaire.</t>
+    <t>The codes required for Questionnaires survey completion</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Level</t>
@@ -132,19 +132,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Survey was completed by self</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Assistant</t>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Research Assistant</t>
   </si>
   <si>
     <t>Survey was completed by an assistant</t>
@@ -459,7 +450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,20 +498,6 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
+++ b/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
+++ b/vbai-fhir/CodeSystem-peds-who-completed-survey.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
